--- a/2024/shuffle-architecute/Teste10/content/results/metrics_4_6.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_4_6.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9974448107024257</v>
+        <v>0.9635213598412662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7450372739199971</v>
+        <v>0.7812520329540524</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9945780343784999</v>
+        <v>0.375596804062288</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9760949318734718</v>
+        <v>0.9117355005327543</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9937806916589971</v>
+        <v>0.9104961526593929</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01072358246892691</v>
+        <v>0.1530930399894714</v>
       </c>
       <c r="H2" t="n">
-        <v>1.704936861991882</v>
+        <v>1.46276867389679</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03423492982983589</v>
+        <v>0.3849827945232391</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03235676139593124</v>
+        <v>0.5712836384773254</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03329585492610931</v>
+        <v>0.4781332015991211</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9974805281265428</v>
+        <v>0.9635435677524998</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7449958155916736</v>
+        <v>0.7812172621117384</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9946735982889805</v>
+        <v>0.3767833491878442</v>
       </c>
       <c r="E3" t="n">
-        <v>0.976415887431193</v>
+        <v>0.911732954062374</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9938776215952595</v>
+        <v>0.910563074082834</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0105736842378974</v>
+        <v>0.1529998332262039</v>
       </c>
       <c r="H3" t="n">
-        <v>1.705214023590088</v>
+        <v>1.463001251220703</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03363152965903282</v>
+        <v>0.3842512369155884</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03192233294248581</v>
+        <v>0.571300208568573</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03277692943811417</v>
+        <v>0.4777756929397583</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9975193219050608</v>
+        <v>0.9635674902769032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7449490954070374</v>
+        <v>0.7811781631330792</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9947787167550755</v>
+        <v>0.3781012696307111</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9767693537108231</v>
+        <v>0.9117296067068017</v>
       </c>
       <c r="F4" t="n">
-        <v>0.993984293116347</v>
+        <v>0.9106371048048949</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01041087508201599</v>
+        <v>0.152899444103241</v>
       </c>
       <c r="H4" t="n">
-        <v>1.70552659034729</v>
+        <v>1.463262677192688</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03296779841184616</v>
+        <v>0.3834386467933655</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03144389763474464</v>
+        <v>0.5713218450546265</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03220584988594055</v>
+        <v>0.4773802161216736</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9975613395460202</v>
+        <v>0.9635930193664012</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7448963667436526</v>
+        <v>0.7811341619306538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9948942559061311</v>
+        <v>0.3795639473914513</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9771582641240298</v>
+        <v>0.9117249090218069</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9941015862430368</v>
+        <v>0.91071866620341</v>
       </c>
       <c r="G5" t="n">
-        <v>0.010234534740448</v>
+        <v>0.1527923047542572</v>
       </c>
       <c r="H5" t="n">
-        <v>1.705879211425781</v>
+        <v>1.463557004928589</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03223826736211777</v>
+        <v>0.3825368285179138</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03091748803853989</v>
+        <v>0.5713522434234619</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03157790377736092</v>
+        <v>0.4769445359706879</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9976066749519501</v>
+        <v>0.9636202008364492</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7448368263198942</v>
+        <v>0.7810845858925641</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9950210407781951</v>
+        <v>0.3811881572406167</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9775856269652313</v>
+        <v>0.9117188343335498</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9942303861045142</v>
+        <v>0.9108087074895734</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01004427298903465</v>
+        <v>0.1526782214641571</v>
       </c>
       <c r="H6" t="n">
-        <v>1.706277370452881</v>
+        <v>1.46388840675354</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03143773227930069</v>
+        <v>0.3815354108810425</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03033902868628502</v>
+        <v>0.5713915228843689</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03088835999369621</v>
+        <v>0.4764635264873505</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9976553975600995</v>
+        <v>0.963648837475933</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7447694126475035</v>
+        <v>0.7810286797506278</v>
       </c>
       <c r="D7" t="n">
-        <v>0.995159975125395</v>
+        <v>0.382990287544112</v>
       </c>
       <c r="E7" t="n">
-        <v>0.978054840864689</v>
+        <v>0.9117107008628184</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9943716201884639</v>
+        <v>0.9109077763214326</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009839794598519802</v>
+        <v>0.1525580435991287</v>
       </c>
       <c r="H7" t="n">
-        <v>1.706728219985962</v>
+        <v>1.464262247085571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03056048788130283</v>
+        <v>0.380424290895462</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02970392256975174</v>
+        <v>0.5714441537857056</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03013224527239799</v>
+        <v>0.4759342968463898</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9977074876398609</v>
+        <v>0.9636788633233797</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7446930351800418</v>
+        <v>0.7809654945951864</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9953119462062305</v>
+        <v>0.3849899999466747</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9785689814578103</v>
+        <v>0.9117003866797668</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9945262394442106</v>
+        <v>0.9110169861174133</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009621184319257736</v>
+        <v>0.1524320244789124</v>
       </c>
       <c r="H8" t="n">
-        <v>1.707238912582397</v>
+        <v>1.464684724807739</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02960092201828957</v>
+        <v>0.3791913390159607</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02900800667703152</v>
+        <v>0.571510910987854</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02930447086691856</v>
+        <v>0.4753509163856506</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.997762862629117</v>
+        <v>0.9637098314738537</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7446062982600203</v>
+        <v>0.7808940046475528</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9954778814010853</v>
+        <v>0.3872086901006769</v>
       </c>
       <c r="E9" t="n">
-        <v>0.979131721771583</v>
+        <v>0.9116869672111868</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9946952299389585</v>
+        <v>0.911136826290976</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009388786740601063</v>
+        <v>0.1523020714521408</v>
       </c>
       <c r="H9" t="n">
-        <v>1.707818865776062</v>
+        <v>1.465162754058838</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02855318784713745</v>
+        <v>0.3778233826160431</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0282463077455759</v>
+        <v>0.5715978145599365</v>
       </c>
       <c r="K9" t="n">
-        <v>0.028399758040905</v>
+        <v>0.4747107028961182</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9978212755630402</v>
+        <v>0.9637414495907103</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7445076964749267</v>
+        <v>0.7808130150430317</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9956585489556458</v>
+        <v>0.3896693717211297</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9797462749710398</v>
+        <v>0.9116698929409021</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9948794606433903</v>
+        <v>0.9112685044433499</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009143639355897903</v>
+        <v>0.1521693766117096</v>
       </c>
       <c r="H10" t="n">
-        <v>1.708478212356567</v>
+        <v>1.465704321861267</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02741243131458759</v>
+        <v>0.3763062059879303</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02741448022425175</v>
+        <v>0.5717083215713501</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02741345390677452</v>
+        <v>0.474007248878479</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9978823439783709</v>
+        <v>0.9637730704989174</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7443953419239493</v>
+        <v>0.7807210863814689</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9958548151997642</v>
+        <v>0.3923994166452788</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9804157812292787</v>
+        <v>0.9116480542560567</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9950798366599355</v>
+        <v>0.9114128372821136</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00888734869658947</v>
+        <v>0.1520366668701172</v>
       </c>
       <c r="H11" t="n">
-        <v>1.709229469299316</v>
+        <v>1.46631908416748</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0261731818318367</v>
+        <v>0.3746229708194733</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02650826796889305</v>
+        <v>0.5718496441841125</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02634071558713913</v>
+        <v>0.4732362329959869</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9979454917951095</v>
+        <v>0.9638039608433284</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7442671243009212</v>
+        <v>0.7806165778763664</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9960673405266459</v>
+        <v>0.3954258521678237</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9811436791443995</v>
+        <v>0.9116207563013217</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9952971744600697</v>
+        <v>0.911570983091599</v>
       </c>
       <c r="G12" t="n">
-        <v>0.008622331544756889</v>
+        <v>0.1519070267677307</v>
       </c>
       <c r="H12" t="n">
-        <v>1.710086822509766</v>
+        <v>1.467017889022827</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02483127266168594</v>
+        <v>0.3727570176124573</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02552301995456219</v>
+        <v>0.5720263123512268</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02517717331647873</v>
+        <v>0.4723914265632629</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.998009854182372</v>
+        <v>0.9638329363669925</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7441204767021471</v>
+        <v>0.7804975587212015</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9962966393083335</v>
+        <v>0.3987819356816982</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9819327694269453</v>
+        <v>0.9115862302575686</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9955321524712181</v>
+        <v>0.9117436629183657</v>
       </c>
       <c r="G13" t="n">
-        <v>0.008352216333150864</v>
+        <v>0.1517854183912277</v>
       </c>
       <c r="H13" t="n">
-        <v>1.7110675573349</v>
+        <v>1.467813968658447</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02338345721364021</v>
+        <v>0.3706877529621124</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02445494383573532</v>
+        <v>0.5722497701644897</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02391918748617172</v>
+        <v>0.4714689254760742</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9980742065549962</v>
+        <v>0.9638586400351048</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7439524583038998</v>
+        <v>0.7803617836944506</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9965429716825458</v>
+        <v>0.4025003259041382</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9827852791661333</v>
+        <v>0.9115429153049635</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9957851882816494</v>
+        <v>0.9119320403093293</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008082143031060696</v>
+        <v>0.1516775488853455</v>
       </c>
       <c r="H14" t="n">
-        <v>1.712191104888916</v>
+        <v>1.468721866607666</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02182808332145214</v>
+        <v>0.3683951497077942</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02330102771520615</v>
+        <v>0.572530210018158</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02256452664732933</v>
+        <v>0.4704626202583313</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9981369101029863</v>
+        <v>0.9638791896836181</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7437595517062852</v>
+        <v>0.7802065795248481</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9968063067598804</v>
+        <v>0.4066210550558191</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9837028890188964</v>
+        <v>0.9114887633224739</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9960564701770342</v>
+        <v>0.9121370317693668</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007818989455699921</v>
+        <v>0.1515913158655167</v>
       </c>
       <c r="H15" t="n">
-        <v>1.713481187820435</v>
+        <v>1.469759702682495</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02016535401344299</v>
+        <v>0.3658544719219208</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02205899357795715</v>
+        <v>0.5728806257247925</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02111218497157097</v>
+        <v>0.4693675637245178</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9981957427908507</v>
+        <v>0.9638921697846663</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7435376665291502</v>
+        <v>0.780028846565634</v>
       </c>
       <c r="D16" t="n">
-        <v>0.997086140352602</v>
+        <v>0.411184706561913</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9846861094375946</v>
+        <v>0.9114213813312108</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9963457833690565</v>
+        <v>0.9123595294762176</v>
       </c>
       <c r="G16" t="n">
-        <v>0.007572081871330738</v>
+        <v>0.1515368223190308</v>
       </c>
       <c r="H16" t="n">
-        <v>1.714964866638184</v>
+        <v>1.470948219299316</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01839845255017281</v>
+        <v>0.3630406856536865</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02072815410792828</v>
+        <v>0.5733168125152588</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01956331171095371</v>
+        <v>0.4681789875030518</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9982477875033815</v>
+        <v>0.9638944897910871</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7432819239232853</v>
+        <v>0.7798248687820786</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9973813555960951</v>
+        <v>0.4162368167591658</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9857343504360067</v>
+        <v>0.9113376216629284</v>
       </c>
       <c r="F17" t="n">
-        <v>0.996652390936138</v>
+        <v>0.9126003664116218</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007353661116212606</v>
+        <v>0.1515271067619324</v>
       </c>
       <c r="H17" t="n">
-        <v>1.716675043106079</v>
+        <v>1.472312211990356</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01653442904353142</v>
+        <v>0.3599257469177246</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01930930465459824</v>
+        <v>0.5738588571548462</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01792184822261333</v>
+        <v>0.466892421245575</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9982892377482089</v>
+        <v>0.9638821833451677</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7429865215697029</v>
+        <v>0.7795903584320597</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9976901018785631</v>
+        <v>0.4218274881335378</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9868450015089602</v>
+        <v>0.9112338528308007</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9969748583151993</v>
+        <v>0.9128601460013035</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00717970309779048</v>
+        <v>0.1515787541866302</v>
       </c>
       <c r="H18" t="n">
-        <v>1.718650341033936</v>
+        <v>1.473880290985107</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01458496879786253</v>
+        <v>0.3564787805080414</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01780597865581512</v>
+        <v>0.5745305418968201</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01619547978043556</v>
+        <v>0.4655046463012695</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9983151676743753</v>
+        <v>0.9638502104760577</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7426447392036251</v>
+        <v>0.7793201734466169</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9980094714760234</v>
+        <v>0.4280095592511326</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9880133784193764</v>
+        <v>0.9111057441017411</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9973108888287784</v>
+        <v>0.9131392878639663</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007070881314575672</v>
+        <v>0.1517129391431808</v>
       </c>
       <c r="H19" t="n">
-        <v>1.720935821533203</v>
+        <v>1.475687026977539</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01256843097507954</v>
+        <v>0.3526671528816223</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01622452028095722</v>
+        <v>0.5753597021102905</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01439649611711502</v>
+        <v>0.4640134572982788</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.998319281898248</v>
+        <v>0.9637922520780313</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7422485029560587</v>
+        <v>0.7790082405196208</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9983353770640618</v>
+        <v>0.4348439224192595</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9892312895622253</v>
+        <v>0.9109477487199815</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9976570413214201</v>
+        <v>0.91343798857627</v>
       </c>
       <c r="G20" t="n">
-        <v>0.007053613662719727</v>
+        <v>0.151956170797348</v>
       </c>
       <c r="H20" t="n">
-        <v>1.723585486412048</v>
+        <v>1.477772951126099</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01051062531769276</v>
+        <v>0.3484533429145813</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0145760141313076</v>
+        <v>0.5763823390007019</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0125433262437582</v>
+        <v>0.4624177813529968</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.998293549735035</v>
+        <v>0.9637002725196129</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7417883835006773</v>
+        <v>0.778647452077758</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9986620443565761</v>
+        <v>0.4423911506347252</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9904872330356927</v>
+        <v>0.9107535879032691</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9980084498991005</v>
+        <v>0.9137559028885576</v>
       </c>
       <c r="G21" t="n">
-        <v>0.007161606568843126</v>
+        <v>0.1523421704769135</v>
       </c>
       <c r="H21" t="n">
-        <v>1.726662278175354</v>
+        <v>1.480185508728027</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008448008447885513</v>
+        <v>0.3438000082969666</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01287602819502354</v>
+        <v>0.5776389837265015</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0106620155274868</v>
+        <v>0.4607194662094116</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9982278330109599</v>
+        <v>0.9635642680523927</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7412531869823313</v>
+        <v>0.7782293669939436</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9989817610098274</v>
+        <v>0.4507214948094627</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9917647148891678</v>
+        <v>0.9105154435668786</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9983584810463844</v>
+        <v>0.9140923596904953</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00743740564212203</v>
+        <v>0.1529129594564438</v>
       </c>
       <c r="H22" t="n">
-        <v>1.730241060256958</v>
+        <v>1.482981324195862</v>
       </c>
       <c r="I22" t="n">
-        <v>0.006429281085729599</v>
+        <v>0.3386638164520264</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01114688999950886</v>
+        <v>0.5791804194450378</v>
       </c>
       <c r="K22" t="n">
-        <v>0.008788079954683781</v>
+        <v>0.4589221179485321</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9981093553435442</v>
+        <v>0.9633715758689431</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7406297633001403</v>
+        <v>0.777743895729426</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9992843295460723</v>
+        <v>0.4599043486348967</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9930411856566074</v>
+        <v>0.9102238834338403</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9986982727155115</v>
+        <v>0.91444565610366</v>
       </c>
       <c r="G23" t="n">
-        <v>0.007934631779789925</v>
+        <v>0.1537216603755951</v>
       </c>
       <c r="H23" t="n">
-        <v>1.734409928321838</v>
+        <v>1.486227512359619</v>
       </c>
       <c r="I23" t="n">
-        <v>0.004518827423453331</v>
+        <v>0.3330020308494568</v>
       </c>
       <c r="J23" t="n">
-        <v>0.009419119916856289</v>
+        <v>0.5810675024986267</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00696896156296134</v>
+        <v>0.4570347964763641</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9979221093925568</v>
+        <v>0.9631064434705275</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7399026879772788</v>
+        <v>0.7771792838940527</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9995565715634455</v>
+        <v>0.4700158546388762</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9942866485641098</v>
+        <v>0.909867629239629</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9990162593761358</v>
+        <v>0.9148133411761444</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008720461279153824</v>
+        <v>0.1548343598842621</v>
       </c>
       <c r="H24" t="n">
-        <v>1.739271879196167</v>
+        <v>1.490003108978271</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002799859503284097</v>
+        <v>0.3267676830291748</v>
       </c>
       <c r="J24" t="n">
-        <v>0.007733320351690054</v>
+        <v>0.5833733081817627</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005266579799354076</v>
+        <v>0.4550705850124359</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9976461251821623</v>
+        <v>0.9627493321791853</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7390538056236668</v>
+        <v>0.7765213725652842</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999781586621777</v>
+        <v>0.4811361413053209</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9954618039211311</v>
+        <v>0.9094334919153417</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9992975081312734</v>
+        <v>0.9151920622242116</v>
       </c>
       <c r="G25" t="n">
-        <v>0.009878708980977535</v>
+        <v>0.1563330888748169</v>
       </c>
       <c r="H25" t="n">
-        <v>1.744948506355286</v>
+        <v>1.494402647018433</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001379087683744729</v>
+        <v>0.3199113607406616</v>
       </c>
       <c r="J25" t="n">
-        <v>0.006142686121165752</v>
+        <v>0.5861831903457642</v>
       </c>
       <c r="K25" t="n">
-        <v>0.003760879393666983</v>
+        <v>0.4530474543571472</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9972565687911823</v>
+        <v>0.9622756606481303</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7380618132600474</v>
+        <v>0.7757534921504167</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999381914211415</v>
+        <v>0.4933463829677994</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9965160255869134</v>
+        <v>0.9089048322529052</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9995231265717197</v>
+        <v>0.9155764252585619</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01151359360665083</v>
+        <v>0.1583209633827209</v>
       </c>
       <c r="H26" t="n">
-        <v>1.751581907272339</v>
+        <v>1.499537467956543</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0003902666212525219</v>
+        <v>0.3123829960823059</v>
       </c>
       <c r="J26" t="n">
-        <v>0.004715742077678442</v>
+        <v>0.589604914188385</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002553002210333943</v>
+        <v>0.4509941637516022</v>
       </c>
     </row>
   </sheetData>
